--- a/Datos/Encuesta_codificada.xlsx
+++ b/Datos/Encuesta_codificada.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositorio_GIT\Metodos_Estadisticos\Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$R$81</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="53">
   <si>
     <t>ID</t>
   </si>
@@ -53,9 +56,6 @@
     <t>oi_2</t>
   </si>
   <si>
-    <t>oi_3</t>
-  </si>
-  <si>
     <t>oi_4</t>
   </si>
   <si>
@@ -92,9 +92,6 @@
     <t>IF</t>
   </si>
   <si>
-    <t>IMNR</t>
-  </si>
-  <si>
     <t>NO</t>
   </si>
   <si>
@@ -155,9 +152,6 @@
     <t>FACPYA</t>
   </si>
   <si>
-    <t>F</t>
-  </si>
-  <si>
     <t>FaPsi</t>
   </si>
   <si>
@@ -185,13 +179,13 @@
     <t>Kenny Y Santiago</t>
   </si>
   <si>
-    <t>Fapsi</t>
-  </si>
-  <si>
     <t>FMVZ</t>
   </si>
   <si>
     <t>TEC LINARES</t>
+  </si>
+  <si>
+    <t>oi_2b</t>
   </si>
 </sst>
 </file>
@@ -549,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="S48" sqref="S48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J78" sqref="J78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,31 +582,31 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -620,19 +614,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2">
         <v>44795</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" s="1">
         <v>22</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G2" s="1">
         <v>3</v>
@@ -641,19 +635,19 @@
         <v>3</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="N2" s="1">
         <v>3</v>
@@ -679,19 +673,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
         <v>44795</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1">
         <v>23</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G3" s="1">
         <v>3</v>
@@ -700,19 +694,19 @@
         <v>2</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N3" s="1">
         <v>3</v>
@@ -738,19 +732,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2">
         <v>44796</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="1">
         <v>18</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G4" s="1">
         <v>3</v>
@@ -759,19 +753,19 @@
         <v>1</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N4" s="1">
         <v>3</v>
@@ -797,19 +791,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>44796</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" s="1">
         <v>18</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G5" s="1">
         <v>3</v>
@@ -818,19 +812,19 @@
         <v>1</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N5" s="1">
         <v>3</v>
@@ -856,19 +850,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2">
         <v>44796</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" s="1">
         <v>19</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G6" s="1">
         <v>3</v>
@@ -877,19 +871,19 @@
         <v>2</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="N6" s="1">
         <v>3</v>
@@ -915,20 +909,20 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2">
         <v>44796</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="1">
+        <v>18</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="1">
-        <v>18</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="G7" s="1">
         <v>3</v>
       </c>
@@ -936,19 +930,19 @@
         <v>1</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N7" s="1">
         <v>3</v>
@@ -974,19 +968,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="2">
         <v>44796</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8" s="1">
         <v>18</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="G8" s="1">
         <v>3</v>
@@ -995,19 +989,19 @@
         <v>1</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N8" s="1">
         <v>3</v>
@@ -1033,19 +1027,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="2">
         <v>44796</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9" s="1">
         <v>19</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>22</v>
+      <c r="F9" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="G9" s="1">
         <v>3</v>
@@ -1054,19 +1048,19 @@
         <v>3</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N9" s="1">
         <v>2</v>
@@ -1092,19 +1086,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="2">
         <v>44796</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E10" s="1">
         <v>19</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>22</v>
+      <c r="F10" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="G10" s="1">
         <v>3</v>
@@ -1113,19 +1107,19 @@
         <v>5</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N10" s="1">
         <v>2</v>
@@ -1151,19 +1145,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" s="2">
         <v>44796</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E11" s="1">
         <v>19</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G11" s="1">
         <v>3</v>
@@ -1172,19 +1166,19 @@
         <v>1</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N11" s="1">
         <v>1</v>
@@ -1210,19 +1204,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" s="2">
         <v>44796</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E12" s="1">
         <v>19</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G12" s="1">
         <v>3</v>
@@ -1231,19 +1225,19 @@
         <v>2</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N12" s="1">
         <v>3</v>
@@ -1269,19 +1263,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" s="2">
         <v>44796</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E13" s="1">
         <v>17</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G13" s="1">
         <v>3</v>
@@ -1290,19 +1284,19 @@
         <v>4</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N13" s="1">
         <v>3</v>
@@ -1328,19 +1322,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" s="2">
         <v>44796</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E14" s="1">
         <v>18</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>22</v>
+      <c r="F14" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="G14" s="1">
         <v>3</v>
@@ -1349,19 +1343,19 @@
         <v>1</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N14" s="1">
         <v>2</v>
@@ -1387,19 +1381,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" s="2">
         <v>44796</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E15" s="1">
         <v>19</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>22</v>
+      <c r="F15" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="G15" s="1">
         <v>3</v>
@@ -1408,19 +1402,19 @@
         <v>2</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N15" s="1">
         <v>3</v>
@@ -1446,19 +1440,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" s="2">
         <v>44796</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E16" s="1">
         <v>21</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>22</v>
+      <c r="F16" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="G16" s="1">
         <v>3</v>
@@ -1467,19 +1461,19 @@
         <v>2</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N16" s="1">
         <v>2</v>
@@ -1505,19 +1499,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" s="2">
         <v>44796</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E17" s="1">
         <v>19</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>22</v>
+      <c r="F17" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="G17" s="1">
         <v>3</v>
@@ -1526,19 +1520,19 @@
         <v>1</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N17" s="1">
         <v>2</v>
@@ -1564,19 +1558,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" s="2">
         <v>44796</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E18" s="1">
         <v>20</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>22</v>
+      <c r="F18" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="G18" s="1">
         <v>3</v>
@@ -1585,19 +1579,19 @@
         <v>3</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N18" s="1">
         <v>2</v>
@@ -1623,19 +1617,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" s="2">
         <v>44796</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E19" s="1">
         <v>18</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>22</v>
+      <c r="F19" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="G19" s="1">
         <v>3</v>
@@ -1644,19 +1638,19 @@
         <v>1</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N19" s="1">
         <v>3</v>
@@ -1682,19 +1676,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C20" s="2">
         <v>44797</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="1">
+        <v>21</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="E20" s="1">
-        <v>21</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="G20" s="1">
         <v>9</v>
@@ -1703,19 +1697,19 @@
         <v>3</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N20" s="1">
         <v>3</v>
@@ -1741,19 +1735,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C21" s="2">
         <v>44797</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="1">
+        <v>21</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="E21" s="1">
-        <v>21</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="G21" s="1">
         <v>9</v>
@@ -1762,19 +1756,19 @@
         <v>1</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N21" s="1">
         <v>3</v>
@@ -1800,19 +1794,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C22" s="2">
         <v>44797</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E22" s="1">
         <v>21</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G22" s="1">
         <v>9</v>
@@ -1821,19 +1815,19 @@
         <v>1</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N22" s="1">
         <v>3</v>
@@ -1859,19 +1853,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C23" s="2">
         <v>44797</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E23" s="1">
         <v>21</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G23" s="1">
         <v>9</v>
@@ -1880,19 +1874,19 @@
         <v>1</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N23" s="1">
         <v>3</v>
@@ -1918,19 +1912,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C24" s="2">
         <v>44797</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="1">
+        <v>21</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="E24" s="1">
-        <v>21</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="G24" s="1">
         <v>9</v>
@@ -1939,19 +1933,19 @@
         <v>4</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N24" s="1">
         <v>2</v>
@@ -1974,19 +1968,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C25" s="2">
         <v>44797</v>
       </c>
       <c r="D25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="1">
+        <v>21</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="E25" s="1">
-        <v>21</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="G25" s="1">
         <v>9</v>
@@ -1995,19 +1989,19 @@
         <v>4</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N25" s="1">
         <v>2</v>
@@ -2030,19 +2024,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C26" s="2">
         <v>44797</v>
       </c>
       <c r="D26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="1">
+        <v>22</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="E26" s="1">
-        <v>22</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="G26" s="1">
         <v>9</v>
@@ -2051,19 +2045,19 @@
         <v>1</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N26" s="1">
         <v>3</v>
@@ -2086,19 +2080,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C27" s="2">
         <v>44797</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E27" s="1">
         <v>21</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G27" s="1">
         <v>9</v>
@@ -2107,19 +2101,19 @@
         <v>1</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N27" s="1">
         <v>2</v>
@@ -2142,19 +2136,19 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C28" s="2">
         <v>44797</v>
       </c>
       <c r="D28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="1">
+        <v>22</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="E28" s="1">
-        <v>22</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="G28" s="1">
         <v>9</v>
@@ -2163,19 +2157,19 @@
         <v>3</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N28" s="1">
         <v>3</v>
@@ -2198,19 +2192,19 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C29" s="2">
         <v>44797</v>
       </c>
       <c r="D29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="1">
+        <v>21</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="E29" s="1">
-        <v>21</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="G29" s="1">
         <v>9</v>
@@ -2219,19 +2213,19 @@
         <v>1</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N29" s="1">
         <v>3</v>
@@ -2254,19 +2248,19 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C30" s="2">
         <v>44797</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E30" s="1">
         <v>22</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G30" s="1">
         <v>9</v>
@@ -2275,19 +2269,19 @@
         <v>1</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N30" s="1">
         <v>3</v>
@@ -2310,19 +2304,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C31" s="4">
         <v>44796</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E31" s="3">
         <v>20</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G31" s="3">
         <v>7</v>
@@ -2331,19 +2325,19 @@
         <v>2</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N31" s="3">
         <v>3</v>
@@ -2366,19 +2360,19 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C32" s="4">
         <v>44796</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E32" s="3">
         <v>27</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G32" s="3">
         <v>7</v>
@@ -2387,19 +2381,19 @@
         <v>1</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N32" s="3">
         <v>2</v>
@@ -2422,19 +2416,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C33" s="4">
         <v>44796</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E33" s="3">
         <v>20</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G33" s="3">
         <v>7</v>
@@ -2443,19 +2437,19 @@
         <v>4</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N33" s="3">
         <v>2</v>
@@ -2478,19 +2472,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C34" s="4">
         <v>44796</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E34" s="3">
         <v>26</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G34" s="3">
         <v>7</v>
@@ -2499,19 +2493,19 @@
         <v>4</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N34" s="3">
         <v>2</v>
@@ -2534,19 +2528,19 @@
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C35" s="4">
         <v>44796</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E35" s="3">
         <v>24</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G35" s="3">
         <v>7</v>
@@ -2555,19 +2549,19 @@
         <v>4</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N35" s="3">
         <v>2</v>
@@ -2590,19 +2584,19 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C36" s="4">
         <v>44796</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="E36" s="3">
         <v>20</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G36" s="3">
         <v>7</v>
@@ -2611,19 +2605,19 @@
         <v>4</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N36" s="3">
         <v>2</v>
@@ -2646,19 +2640,19 @@
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C37" s="4">
         <v>44796</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="E37" s="3">
         <v>20</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G37" s="3">
         <v>7</v>
@@ -2667,19 +2661,19 @@
         <v>4</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N37" s="3">
         <v>2</v>
@@ -2702,19 +2696,19 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C38" s="4">
         <v>44796</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="E38" s="3">
         <v>21</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G38" s="3">
         <v>7</v>
@@ -2723,19 +2717,19 @@
         <v>4</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="N38" s="3">
         <v>2</v>
@@ -2758,19 +2752,19 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C39" s="4">
         <v>44796</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="E39" s="3">
         <v>20</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G39" s="3">
         <v>7</v>
@@ -2779,19 +2773,19 @@
         <v>4</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N39" s="3">
         <v>3</v>
@@ -2814,19 +2808,19 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C40" s="4">
         <v>44796</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E40" s="3">
         <v>20</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G40" s="3">
         <v>7</v>
@@ -2835,19 +2829,19 @@
         <v>1</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N40" s="3">
         <v>3</v>
@@ -2870,19 +2864,19 @@
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C41" s="4">
         <v>44796</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="E41" s="3">
         <v>21</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G41" s="3">
         <v>7</v>
@@ -2891,19 +2885,19 @@
         <v>1</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N41" s="3">
         <v>3</v>
@@ -2926,19 +2920,19 @@
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C42" s="6">
         <v>44796</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E42" s="5">
         <v>19</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G42" s="5">
         <v>5</v>
@@ -2947,19 +2941,19 @@
         <v>1</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N42" s="3">
         <v>2</v>
@@ -2982,19 +2976,19 @@
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C43" s="6">
         <v>44795</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E43" s="5">
         <v>21</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G43" s="5">
         <v>5</v>
@@ -3003,19 +2997,19 @@
         <v>2</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N43" s="3">
         <v>2</v>
@@ -3038,19 +3032,19 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C44" s="6">
         <v>44795</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E44" s="5">
         <v>19</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G44" s="5">
         <v>5</v>
@@ -3059,19 +3053,19 @@
         <v>1</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N44" s="3">
         <v>2</v>
@@ -3094,19 +3088,19 @@
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C45" s="6">
         <v>44796</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E45" s="5">
         <v>20</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G45" s="5">
         <v>5</v>
@@ -3115,19 +3109,19 @@
         <v>1</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N45" s="3">
         <v>3</v>
@@ -3150,19 +3144,19 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C46" s="6">
         <v>44796</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E46" s="5">
         <v>20</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G46" s="5">
         <v>5</v>
@@ -3171,19 +3165,19 @@
         <v>1</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N46" s="3">
         <v>2</v>
@@ -3206,19 +3200,19 @@
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C47" s="6">
         <v>44796</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E47" s="3">
         <v>20</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G47" s="5">
         <v>5</v>
@@ -3227,19 +3221,19 @@
         <v>1</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="N47" s="3">
         <v>2</v>
@@ -3262,19 +3256,19 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C48" s="6">
         <v>44798</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E48" s="5">
         <v>19</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G48" s="5">
         <v>5</v>
@@ -3283,19 +3277,19 @@
         <v>5</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N48" s="3">
         <v>3</v>
@@ -3318,19 +3312,19 @@
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C49" s="6">
         <v>44801</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E49" s="5">
         <v>19</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G49" s="5">
         <v>5</v>
@@ -3339,19 +3333,19 @@
         <v>1</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N49" s="3">
         <v>2</v>
@@ -3374,19 +3368,19 @@
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C50" s="6">
         <v>44801</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E50" s="5">
         <v>19</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G50" s="5">
         <v>5</v>
@@ -3395,19 +3389,19 @@
         <v>1</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N50" s="3">
         <v>3</v>
@@ -3430,19 +3424,19 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C51" s="6">
         <v>44801</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E51" s="5">
         <v>19</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G51" s="5">
         <v>5</v>
@@ -3451,19 +3445,19 @@
         <v>1</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N51" s="3">
         <v>2</v>
@@ -3486,19 +3480,19 @@
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C52" s="6">
         <v>44801</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E52" s="5">
         <v>18</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G52" s="5">
         <v>5</v>
@@ -3507,19 +3501,19 @@
         <v>1</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N52" s="3">
         <v>2</v>
@@ -3542,19 +3536,19 @@
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C53" s="6">
         <v>44801</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E53" s="5">
         <v>24</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G53" s="5">
         <v>5</v>
@@ -3563,19 +3557,19 @@
         <v>1</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N53" s="3">
         <v>3</v>
@@ -3598,19 +3592,19 @@
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C54" s="6">
         <v>44801</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E54" s="5">
         <v>20</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G54" s="5">
         <v>5</v>
@@ -3619,19 +3613,19 @@
         <v>1</v>
       </c>
       <c r="I54" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J54" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="K54" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N54" s="3">
         <v>3</v>
@@ -3654,19 +3648,19 @@
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C55" s="6">
         <v>44802</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E55" s="5">
         <v>21</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G55" s="5">
         <v>5</v>
@@ -3675,19 +3669,19 @@
         <v>3</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N55" s="3">
         <v>2</v>
@@ -3710,19 +3704,19 @@
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E56" s="5">
         <v>18</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G56" s="5">
         <v>5</v>
@@ -3731,19 +3725,19 @@
         <v>2</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N56" s="3">
         <v>2</v>
@@ -3766,19 +3760,19 @@
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E57" s="5">
         <v>20</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G57" s="5">
         <v>5</v>
@@ -3787,19 +3781,19 @@
         <v>1</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N57" s="3">
         <v>2</v>
@@ -3822,19 +3816,19 @@
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E58" s="5">
         <v>20</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G58" s="5">
         <v>5</v>
@@ -3843,19 +3837,19 @@
         <v>1</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N58" s="3">
         <v>2</v>
@@ -3878,19 +3872,19 @@
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E59" s="5">
         <v>18</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G59" s="5">
         <v>5</v>
@@ -3899,19 +3893,19 @@
         <v>1</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N59" s="3">
         <v>2</v>
@@ -3934,19 +3928,19 @@
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C60" s="4">
         <v>44797</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="E60" s="3">
         <v>18</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G60" s="3">
         <v>1</v>
@@ -3955,19 +3949,19 @@
         <v>4</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N60" s="3">
         <v>3</v>
@@ -3990,19 +3984,19 @@
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C61" s="4">
         <v>44797</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E61" s="3">
         <v>19</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G61" s="3">
         <v>1</v>
@@ -4011,19 +4005,19 @@
         <v>4</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N61" s="3">
         <v>3</v>
@@ -4046,19 +4040,19 @@
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C62" s="4">
         <v>44797</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E62" s="3">
         <v>17</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G62" s="3">
         <v>1</v>
@@ -4067,19 +4061,19 @@
         <v>1</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N62" s="3">
         <v>3</v>
@@ -4102,19 +4096,19 @@
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C63" s="4">
         <v>44797</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E63" s="3">
         <v>18</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G63" s="3">
         <v>1</v>
@@ -4123,19 +4117,19 @@
         <v>2</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N63" s="3">
         <v>3</v>
@@ -4158,19 +4152,19 @@
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C64" s="4">
         <v>44797</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E64" s="3">
         <v>17</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G64" s="3">
         <v>1</v>
@@ -4179,19 +4173,19 @@
         <v>4</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N64" s="3">
         <v>3</v>
@@ -4214,19 +4208,19 @@
         <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C65" s="4">
         <v>44797</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E65" s="3">
         <v>16</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G65" s="3">
         <v>1</v>
@@ -4235,19 +4229,19 @@
         <v>1</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L65" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N65" s="3">
         <v>2</v>
@@ -4270,19 +4264,19 @@
         <v>65</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C66" s="4">
         <v>44797</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E66" s="3">
         <v>17</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G66" s="3">
         <v>1</v>
@@ -4291,19 +4285,19 @@
         <v>4</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L66" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N66" s="3">
         <v>2</v>
@@ -4326,19 +4320,19 @@
         <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C67" s="4">
         <v>44797</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E67" s="3">
         <v>17</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G67" s="3">
         <v>1</v>
@@ -4347,19 +4341,19 @@
         <v>4</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N67" s="3">
         <v>3</v>
@@ -4382,19 +4376,19 @@
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C68" s="4">
         <v>44797</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="E68" s="3">
         <v>18</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G68" s="3">
         <v>1</v>
@@ -4403,19 +4397,19 @@
         <v>4</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N68" s="3">
         <v>3</v>
@@ -4438,19 +4432,19 @@
         <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C69" s="4">
         <v>44797</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="E69" s="3">
         <v>18</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G69" s="3">
         <v>1</v>
@@ -4459,19 +4453,19 @@
         <v>3</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L69" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N69" s="3">
         <v>3</v>
@@ -4494,19 +4488,19 @@
         <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C70" s="4">
         <v>44797</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="E70" s="3">
         <v>18</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G70" s="3">
         <v>1</v>
@@ -4515,19 +4509,19 @@
         <v>1</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L70" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N70" s="3">
         <v>3</v>
@@ -4550,19 +4544,19 @@
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C71" s="4">
         <v>44797</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E71" s="3">
         <v>16</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G71" s="3">
         <v>1</v>
@@ -4571,19 +4565,19 @@
         <v>4</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N71" s="3">
         <v>3</v>
@@ -4606,19 +4600,19 @@
         <v>71</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C72" s="4">
         <v>44797</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E72" s="3">
         <v>18</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G72" s="3">
         <v>1</v>
@@ -4627,19 +4621,19 @@
         <v>2</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L72" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N72" s="3">
         <v>3</v>
@@ -4662,19 +4656,19 @@
         <v>72</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C73" s="4">
         <v>44797</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="E73" s="3">
         <v>18</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G73" s="3">
         <v>1</v>
@@ -4683,19 +4677,19 @@
         <v>4</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N73" s="3">
         <v>2</v>
@@ -4718,19 +4712,19 @@
         <v>73</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C74" s="4">
         <v>44797</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="E74" s="3">
         <v>19</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G74" s="3">
         <v>1</v>
@@ -4739,19 +4733,19 @@
         <v>4</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L74" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N74" s="3">
         <v>3</v>
@@ -4774,19 +4768,19 @@
         <v>74</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C75" s="4">
         <v>44797</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="E75" s="3">
         <v>17</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G75" s="3">
         <v>1</v>
@@ -4795,19 +4789,19 @@
         <v>4</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L75" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N75" s="3">
         <v>3</v>
@@ -4830,19 +4824,19 @@
         <v>75</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C76" s="4">
         <v>44797</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E76" s="3">
         <v>20</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G76" s="3">
         <v>1</v>
@@ -4851,19 +4845,19 @@
         <v>2</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L76" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N76" s="3">
         <v>3</v>
@@ -4886,19 +4880,19 @@
         <v>76</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C77" s="4">
         <v>44797</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="E77" s="3">
         <v>18</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G77" s="3">
         <v>1</v>
@@ -4907,19 +4901,19 @@
         <v>1</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L77" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N77" s="3">
         <v>3</v>
@@ -4942,19 +4936,19 @@
         <v>77</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C78" s="4">
         <v>44797</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="E78" s="3">
         <v>18</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G78" s="3">
         <v>1</v>
@@ -4963,19 +4957,19 @@
         <v>1</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L78" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M78" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N78" s="3">
         <v>3</v>
@@ -4998,19 +4992,19 @@
         <v>78</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C79" s="4">
         <v>44797</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E79" s="3">
         <v>17</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G79" s="3">
         <v>1</v>
@@ -5019,19 +5013,19 @@
         <v>1</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L79" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M79" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="N79" s="3">
         <v>2</v>
@@ -5054,19 +5048,19 @@
         <v>79</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C80" s="4">
         <v>44797</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E80" s="3">
         <v>17</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G80" s="3">
         <v>1</v>
@@ -5075,19 +5069,19 @@
         <v>3</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L80" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M80" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N80" s="3">
         <v>3</v>
@@ -5110,19 +5104,19 @@
         <v>80</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C81" s="4">
         <v>44798</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="E81" s="3">
         <v>17</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G81" s="3">
         <v>1</v>
@@ -5131,19 +5125,19 @@
         <v>4</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L81" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N81" s="3">
         <v>3</v>
@@ -5162,6 +5156,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:R81"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/Datos/Encuesta_codificada.xlsx
+++ b/Datos/Encuesta_codificada.xlsx
@@ -541,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U81"/>
+  <dimension ref="A1:R81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J78" sqref="J78"/>
+      <selection activeCell="S1" sqref="S1:U1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,7 +553,7 @@
     <col min="2" max="2" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -609,7 +609,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -664,11 +664,8 @@
       <c r="R2" s="1">
         <v>4</v>
       </c>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -723,11 +720,8 @@
       <c r="R3" s="1">
         <v>4</v>
       </c>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -782,11 +776,8 @@
       <c r="R4" s="1">
         <v>3</v>
       </c>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -841,11 +832,8 @@
       <c r="R5" s="1">
         <v>3</v>
       </c>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -900,11 +888,8 @@
       <c r="R6" s="1">
         <v>3</v>
       </c>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -959,11 +944,8 @@
       <c r="R7" s="1">
         <v>5</v>
       </c>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1018,11 +1000,8 @@
       <c r="R8" s="1">
         <v>3</v>
       </c>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1077,11 +1056,8 @@
       <c r="R9" s="1">
         <v>3</v>
       </c>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1136,11 +1112,8 @@
       <c r="R10" s="1">
         <v>3</v>
       </c>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1195,11 +1168,8 @@
       <c r="R11" s="1">
         <v>2</v>
       </c>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1254,11 +1224,8 @@
       <c r="R12" s="1">
         <v>5</v>
       </c>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1313,11 +1280,8 @@
       <c r="R13" s="1">
         <v>5</v>
       </c>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1372,11 +1336,8 @@
       <c r="R14" s="1">
         <v>4</v>
       </c>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1431,11 +1392,8 @@
       <c r="R15" s="1">
         <v>3</v>
       </c>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1490,11 +1448,8 @@
       <c r="R16" s="1">
         <v>3</v>
       </c>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1549,11 +1504,8 @@
       <c r="R17" s="1">
         <v>3</v>
       </c>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1608,11 +1560,8 @@
       <c r="R18" s="1">
         <v>3</v>
       </c>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1667,11 +1616,8 @@
       <c r="R19" s="1">
         <v>4</v>
       </c>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1726,11 +1672,8 @@
       <c r="R20" s="1">
         <v>5</v>
       </c>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
-      <c r="U20" s="1"/>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1785,11 +1728,8 @@
       <c r="R21" s="1">
         <v>4</v>
       </c>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1844,11 +1784,8 @@
       <c r="R22" s="1">
         <v>4</v>
       </c>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
-      <c r="U22" s="1"/>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1903,11 +1840,8 @@
       <c r="R23" s="1">
         <v>4</v>
       </c>
-      <c r="S23" s="1"/>
-      <c r="T23" s="1"/>
-      <c r="U23" s="1"/>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1963,7 +1897,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2019,7 +1953,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2075,7 +2009,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2131,7 +2065,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2187,7 +2121,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2243,7 +2177,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2299,7 +2233,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2355,7 +2289,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
